--- a/arquivo excel/media de notas.xlsx
+++ b/arquivo excel/media de notas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\arquivo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD30714-DC6D-4610-8D45-953074171AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400298D-51C4-42B6-A692-E17CDF46E067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="media de notas" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Médias das Notas </a:t>
+              <a:t>Médias das Avaliações por Temporada </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -149,17 +149,16 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -174,18 +173,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="63500">
@@ -196,167 +210,319 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-BE26-4E03-AA8E-B9DF36678591}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:miter lim="800000"/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
-          </c:dPt>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'media de notas'!$A$2:$A$9</c:f>
@@ -423,6 +589,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FD0-4618-AC96-21EF5FDA040E}"/>
@@ -437,11 +604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="923337008"/>
         <c:axId val="923339920"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="923337008"/>
         <c:scaling>
@@ -501,7 +668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="923339920"/>
@@ -570,7 +737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="923337008"/>
@@ -614,7 +781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1459,7 +1626,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
